--- a/spec/ADV_Params.xlsx
+++ b/spec/ADV_Params.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
   <si>
     <t>EdgeSense</t>
   </si>
@@ -189,9 +189,6 @@
     <t>12Gi</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>2.75Ti</t>
   </si>
   <si>
@@ -202,6 +199,12 @@
   </si>
   <si>
     <t>ADV_PORTAL_IMAGE_DEF_1.1.12</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -546,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -559,7 +562,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>2</v>
       </c>
       <c r="C1">
@@ -570,32 +573,37 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>3</v>
       </c>
     </row>
@@ -603,7 +611,7 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>2</v>
       </c>
     </row>
@@ -611,11 +619,13 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
@@ -637,47 +647,60 @@
       <c r="A13" t="s">
         <v>12</v>
       </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>60</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>61</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>3</v>
       </c>
     </row>
@@ -685,7 +708,7 @@
       <c r="A23" t="s">
         <v>7</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>2</v>
       </c>
     </row>
@@ -693,11 +716,13 @@
       <c r="A24" t="s">
         <v>18</v>
       </c>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
@@ -719,26 +744,36 @@
       <c r="A28" t="s">
         <v>12</v>
       </c>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>13</v>
       </c>
+      <c r="B29" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>21</v>
       </c>
+      <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>1</v>
       </c>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>22</v>
       </c>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
@@ -761,7 +796,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -796,7 +831,7 @@
         <v>28</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -812,7 +847,7 @@
         <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -841,7 +876,7 @@
         <v>31</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -855,147 +890,193 @@
         <v>13</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>33</v>
       </c>
+      <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>1</v>
       </c>
+      <c r="B54" s="1"/>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>34</v>
       </c>
+      <c r="B55" s="1"/>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>35</v>
       </c>
+      <c r="B56" s="1"/>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>36</v>
       </c>
+      <c r="B57" s="1"/>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>37</v>
       </c>
+      <c r="B58" s="1"/>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>13</v>
       </c>
+      <c r="B59" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="B60" s="1"/>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>38</v>
       </c>
+      <c r="B61" s="1"/>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>1</v>
       </c>
+      <c r="B62" s="1"/>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>39</v>
       </c>
+      <c r="B63" s="1"/>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B68" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>13</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/spec/ADV_Params.xlsx
+++ b/spec/ADV_Params.xlsx
@@ -549,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>

--- a/spec/ADV_Params.xlsx
+++ b/spec/ADV_Params.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
   <si>
     <t>EdgeSense</t>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default/es-edgesense-portal:8080 | default/es-deviceon-portal:8080 </t>
+  </si>
+  <si>
+    <t>portal.rmm.example.com | portal.deviceon.example.com</t>
+  </si>
+  <si>
+    <t>es-rmm-portal | es-deviceon-portal</t>
   </si>
 </sst>
 </file>
@@ -550,12 +559,13 @@
   <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="52.75" customWidth="1"/>
+    <col min="2" max="2" width="73.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -983,7 +993,9 @@
       <c r="A67" t="s">
         <v>43</v>
       </c>
-      <c r="B67" s="1"/>
+      <c r="B67" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
@@ -1012,13 +1024,17 @@
       <c r="A72" t="s">
         <v>45</v>
       </c>
-      <c r="B72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>46</v>
       </c>
-      <c r="B73" s="1"/>
+      <c r="B73" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="74" spans="1:2">
       <c r="B74" s="1"/>

--- a/spec/ADV_Params.xlsx
+++ b/spec/ADV_Params.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="102">
   <si>
     <t>EdgeSense</t>
   </si>
@@ -214,13 +214,145 @@
   </si>
   <si>
     <t>es-rmm-portal | es-deviceon-portal</t>
+  </si>
+  <si>
+    <t>Prometheus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADV_ALERT_MEM_DEF_32Mi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADV_ALERT_PV_DEF_1Gi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADV_ALERT_IMAGE_DEF_v0.15.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADV_CONFIG_IMAGE_DEF_v0.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADV_BUSYBOX_IMAGE_DEF_v1.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADV_KUBE_MEM_DEF_100Mi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADV_NOEXPO_MEM_DEF_50Mi</t>
+  </si>
+  <si>
+    <t>ADV_PROME_MEM_DEF_1524Mi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADV_PUSH_MEM_DEF_32Mi</t>
+  </si>
+  <si>
+    <t>ADV_PROME_PV_DEF_256Gi</t>
+  </si>
+  <si>
+    <t>ADV_KUBE_IMAGE_DEF_v1.4.0</t>
+  </si>
+  <si>
+    <t>ADV_NOEXPO_IMAGE_DEF_v0.17.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADV_PROME_IMAGE_DEF_v2.5.0</t>
+  </si>
+  <si>
+    <t>ADV_PUSH_IMAGE_DEF_v0.6.0</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Postgres Exporter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADV_MEM_DEF_128Mi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADV_IMAGE_DEF_v0.4.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADV_NODE_NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rabbitmq Exporter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADV_MEM_DEF_128Mi</t>
+  </si>
+  <si>
+    <t>ADV_IMAGE_DEF_v0.29.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADV_HOST_IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MongoDB Exporter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADV_MEM_DEF_192Mi</t>
+  </si>
+  <si>
+    <t>ADV_IMAGE_DEF_v0.6.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grafana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADV_GRAFANA_MEM_DEF_32Mi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADV_GRAFANA_PV_DEF_10Gi</t>
+  </si>
+  <si>
+    <t>ADV_GRAFANA_IMAGE_DEF_6.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADV_NODE_NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADV_HOST_IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADV_CURL_IMAGE_DEF_latest</t>
+  </si>
+  <si>
+    <t>ADV_SIDECAR_IMAGE_DEF_0.0.3</t>
+  </si>
+  <si>
+    <t>2 Nodes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -229,16 +361,37 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -246,13 +399,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7030A0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7030A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -267,6 +446,105 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線接點 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3381375" y="839881"/>
+          <a:ext cx="2506756" cy="265020"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>3362</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線接點 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5888131" y="574862"/>
+          <a:ext cx="2524125" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -556,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -568,535 +846,845 @@
     <col min="2" max="2" width="73.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" s="3"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" s="3"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75" s="3"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="3"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" s="3"/>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B78" s="3"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B79" s="3"/>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B80" s="3"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B81" s="3"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+      <c r="B82" s="3"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B83" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+    <row r="84" spans="1:2">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B93" s="4"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B98" s="2"/>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B100" s="2"/>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="2"/>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
+      <c r="B102" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
+      <c r="B105" s="2"/>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B106" s="2"/>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B107" s="2"/>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
+      <c r="B112" s="2"/>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B114" s="2"/>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B116" s="2"/>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>35</v>
-      </c>
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>38</v>
-      </c>
-      <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B121" s="2"/>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B123" s="2"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B125" s="2"/>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>39</v>
-      </c>
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>40</v>
-      </c>
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>41</v>
-      </c>
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>42</v>
-      </c>
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>43</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>44</v>
-      </c>
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>1</v>
-      </c>
-      <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>45</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>46</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="B74" s="1"/>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>47</v>
-      </c>
-      <c r="B75" s="1"/>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>1</v>
-      </c>
-      <c r="B76" s="1"/>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>48</v>
-      </c>
-      <c r="B77" s="1"/>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>49</v>
-      </c>
-      <c r="B78" s="1"/>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>50</v>
-      </c>
-      <c r="B79" s="1"/>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>51</v>
-      </c>
-      <c r="B80" s="1"/>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>52</v>
-      </c>
-      <c r="B81" s="1"/>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>12</v>
-      </c>
-      <c r="B82" s="1"/>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>13</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="B126" s="2"/>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B127" s="2"/>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B128" s="2"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B129" s="2"/>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B130" s="4"/>
+      <c r="C130" s="1"/>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B131" s="4"/>
+      <c r="C131" s="1"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B133" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1108,6 +1696,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1120,6 +1709,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/spec/ADV_Params.xlsx
+++ b/spec/ADV_Params.xlsx
@@ -153,12 +153,6 @@
     <t>Ingress</t>
   </si>
   <si>
-    <t>ADV_HOST_DEF_portal.rmm.example.com</t>
-  </si>
-  <si>
-    <t>ADV_SERVICENAME_DEF_es-rmm-portal</t>
-  </si>
-  <si>
     <t>CoreDNS</t>
   </si>
   <si>
@@ -210,12 +204,6 @@
     <t xml:space="preserve">default/es-edgesense-portal:8080 | default/es-deviceon-portal:8080 </t>
   </si>
   <si>
-    <t>portal.rmm.example.com | portal.deviceon.example.com</t>
-  </si>
-  <si>
-    <t>es-rmm-portal | es-deviceon-portal</t>
-  </si>
-  <si>
     <t>Prometheus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -346,6 +334,18 @@
   </si>
   <si>
     <t>2 Nodes</t>
+  </si>
+  <si>
+    <t>ADV_HOST_DEF_portal.edgesense.example.com</t>
+  </si>
+  <si>
+    <t>ADV_SERVICENAME_DEF_es-edgesense-portal</t>
+  </si>
+  <si>
+    <t>portal.edgesense.example.com | portal.deviceon.example.com</t>
+  </si>
+  <si>
+    <t>es-edgesense-portal | es-deviceon-portal</t>
   </si>
 </sst>
 </file>
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -925,7 +925,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -939,7 +939,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -966,13 +966,13 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20" s="3"/>
     </row>
@@ -1015,7 +1015,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1023,7 +1023,7 @@
         <v>11</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1037,7 +1037,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1067,7 +1067,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>24</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>28</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1127,7 +1127,7 @@
         <v>24</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1135,7 +1135,7 @@
         <v>13</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1165,7 +1165,7 @@
         <v>31</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1179,7 +1179,7 @@
         <v>13</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1227,7 +1227,7 @@
         <v>13</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1275,7 +1275,7 @@
         <v>43</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1283,7 +1283,7 @@
         <v>13</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1304,18 +1304,18 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1324,7 +1324,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B75" s="3"/>
     </row>
@@ -1336,31 +1336,31 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B77" s="3"/>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B78" s="3"/>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B79" s="3"/>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B80" s="3"/>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B81" s="3"/>
     </row>
@@ -1375,7 +1375,7 @@
         <v>13</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1384,7 +1384,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B85" s="2"/>
     </row>
@@ -1396,85 +1396,85 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B87" s="2"/>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B88" s="2"/>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B89" s="2"/>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B90" s="2"/>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B91" s="2"/>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B92" s="2"/>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B93" s="4"/>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B94" s="2"/>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B95" s="2"/>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B96" s="2"/>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B97" s="2"/>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B98" s="2"/>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B99" s="2"/>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B100" s="2"/>
     </row>
@@ -1489,7 +1489,7 @@
         <v>13</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1498,7 +1498,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B104" s="2"/>
     </row>
@@ -1510,22 +1510,22 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B106" s="2"/>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B107" s="2"/>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1540,7 +1540,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B111" s="2"/>
     </row>
@@ -1552,27 +1552,27 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B113" s="2"/>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B114" s="2"/>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B116" s="2"/>
     </row>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B118" s="2"/>
     </row>
@@ -1594,27 +1594,27 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B120" s="2"/>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B121" s="2"/>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B123" s="2"/>
     </row>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B125" s="2"/>
     </row>
@@ -1636,47 +1636,47 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B127" s="2"/>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B128" s="2"/>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B129" s="2"/>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B130" s="4"/>
       <c r="C130" s="1"/>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B131" s="4"/>
       <c r="C131" s="1"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B133" s="2"/>
     </row>

--- a/spec/ADV_Params.xlsx
+++ b/spec/ADV_Params.xlsx
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/spec/ADV_Params.xlsx
+++ b/spec/ADV_Params.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="104">
   <si>
     <t>EdgeSense</t>
   </si>
@@ -346,6 +346,12 @@
   </si>
   <si>
     <t>es-edgesense-portal | es-deviceon-portal</t>
+  </si>
+  <si>
+    <t>ChartMuseum</t>
+  </si>
+  <si>
+    <t>ADV_IMAGE_DEF_v0.8.2</t>
   </si>
 </sst>
 </file>
@@ -834,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1679,6 +1685,44 @@
         <v>94</v>
       </c>
       <c r="B133" s="2"/>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B134" s="2"/>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" s="2"/>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B136" s="2"/>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B137" s="2"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B138" s="2"/>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/spec/ADV_Params.xlsx
+++ b/spec/ADV_Params.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="104">
   <si>
     <t>EdgeSense</t>
   </si>
@@ -87,9 +87,6 @@
     <t>ADV_IMAGE_DEF_3.7.8</t>
   </si>
   <si>
-    <t>ADV_PV_DEF_32Gi</t>
-  </si>
-  <si>
     <t>ADV_MEM_DEF_6Gi</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>ADV_EXPRESS_IMAGE_DEF_0.49.0</t>
   </si>
   <si>
-    <t>ADV_PV_DEF_1Ti</t>
-  </si>
-  <si>
     <t>Postgres</t>
   </si>
   <si>
@@ -352,6 +346,12 @@
   </si>
   <si>
     <t>ADV_IMAGE_DEF_v0.8.2</t>
+  </si>
+  <si>
+    <t>ADV_PV_DEF_64Gi</t>
+  </si>
+  <si>
+    <t>ADV_PV_DEF_1.375Ti</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -420,11 +420,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7030A0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7030A0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -438,6 +451,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -840,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -857,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -923,7 +942,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -931,7 +950,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -945,7 +964,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -972,13 +991,13 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20" s="3"/>
     </row>
@@ -1021,7 +1040,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1029,7 +1048,7 @@
         <v>11</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1043,7 +1062,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1070,18 +1089,18 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1089,7 +1108,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1098,7 +1117,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" s="3"/>
     </row>
@@ -1110,30 +1129,30 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" s="3"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41" s="3"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1141,7 +1160,7 @@
         <v>13</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1150,7 +1169,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B46" s="3"/>
     </row>
@@ -1162,21 +1181,21 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B48" s="3"/>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B50" s="3"/>
     </row>
@@ -1185,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1194,7 +1213,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B53" s="3"/>
     </row>
@@ -1206,25 +1225,25 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B55" s="3"/>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B56" s="3"/>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B57" s="3"/>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B58" s="3"/>
     </row>
@@ -1233,7 +1252,7 @@
         <v>13</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1242,7 +1261,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B61" s="3"/>
     </row>
@@ -1254,34 +1273,34 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B63" s="3"/>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B64" s="3"/>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B65" s="3"/>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B66" s="3"/>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1289,7 +1308,7 @@
         <v>13</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1298,7 +1317,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B70" s="3"/>
     </row>
@@ -1310,18 +1329,18 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1330,7 +1349,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B75" s="3"/>
     </row>
@@ -1342,31 +1361,31 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B77" s="3"/>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B78" s="3"/>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B79" s="3"/>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B80" s="3"/>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B81" s="3"/>
     </row>
@@ -1381,7 +1400,7 @@
         <v>13</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1390,7 +1409,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B85" s="2"/>
     </row>
@@ -1402,85 +1421,85 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B87" s="2"/>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B88" s="2"/>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B89" s="2"/>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B90" s="2"/>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B91" s="2"/>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B92" s="2"/>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B93" s="4"/>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B94" s="2"/>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B95" s="2"/>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B96" s="2"/>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B97" s="2"/>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B98" s="2"/>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B99" s="2"/>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B100" s="2"/>
     </row>
@@ -1495,7 +1514,7 @@
         <v>13</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1504,7 +1523,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B104" s="2"/>
     </row>
@@ -1516,22 +1535,22 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B106" s="2"/>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B107" s="2"/>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1546,7 +1565,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B111" s="2"/>
     </row>
@@ -1558,27 +1577,27 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B113" s="2"/>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B114" s="2"/>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B116" s="2"/>
     </row>
@@ -1588,7 +1607,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B118" s="2"/>
     </row>
@@ -1600,27 +1619,27 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B120" s="2"/>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B121" s="2"/>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B123" s="2"/>
     </row>
@@ -1630,7 +1649,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B125" s="2"/>
     </row>
@@ -1642,53 +1661,53 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B127" s="2"/>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B128" s="2"/>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B129" s="2"/>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B130" s="4"/>
       <c r="C130" s="1"/>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B131" s="4"/>
       <c r="C131" s="1"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B133" s="2"/>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B134" s="2"/>
     </row>
@@ -1700,29 +1719,35 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B136" s="2"/>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B137" s="2"/>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B138" s="2"/>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="A139" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/spec/ADV_Params.xlsx
+++ b/spec/ADV_Params.xlsx
@@ -861,7 +861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>

--- a/spec/ADV_Params.xlsx
+++ b/spec/ADV_Params.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="105">
   <si>
     <t>EdgeSense</t>
   </si>
@@ -108,9 +108,6 @@
     <t>ADV_PV_DEF_8Gi</t>
   </si>
   <si>
-    <t>ADV_MEM_DEF_1Gi</t>
-  </si>
-  <si>
     <t>Minio</t>
   </si>
   <si>
@@ -352,6 +349,12 @@
   </si>
   <si>
     <t>ADV_PV_DEF_1.375Ti</t>
+  </si>
+  <si>
+    <t>ADV_MEM_DEF_512Gi</t>
+  </si>
+  <si>
+    <t>1Gi</t>
   </si>
 </sst>
 </file>
@@ -861,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -876,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -942,7 +945,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -950,7 +953,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -964,7 +967,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -991,13 +994,13 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="3"/>
     </row>
@@ -1040,7 +1043,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1048,7 +1051,7 @@
         <v>11</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1062,7 +1065,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1089,10 +1092,10 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1100,7 +1103,7 @@
         <v>23</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1108,7 +1111,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1141,10 +1144,10 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1152,7 +1155,7 @@
         <v>23</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1160,7 +1163,7 @@
         <v>13</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1190,21 +1193,23 @@
         <v>29</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B50" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1213,7 +1218,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B53" s="3"/>
     </row>
@@ -1225,25 +1230,25 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B55" s="3"/>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B56" s="3"/>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B57" s="3"/>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B58" s="3"/>
     </row>
@@ -1252,7 +1257,7 @@
         <v>13</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1261,7 +1266,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B61" s="3"/>
     </row>
@@ -1273,34 +1278,34 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B63" s="3"/>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B64" s="3"/>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B65" s="3"/>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B66" s="3"/>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1308,7 +1313,7 @@
         <v>13</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1317,7 +1322,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B70" s="3"/>
     </row>
@@ -1329,18 +1334,18 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1349,7 +1354,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B75" s="3"/>
     </row>
@@ -1361,31 +1366,31 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B77" s="3"/>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B78" s="3"/>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B79" s="3"/>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B80" s="3"/>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B81" s="3"/>
     </row>
@@ -1400,7 +1405,7 @@
         <v>13</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1409,7 +1414,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B85" s="2"/>
     </row>
@@ -1421,85 +1426,85 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B87" s="2"/>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B88" s="2"/>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B89" s="2"/>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B90" s="2"/>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B91" s="2"/>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B92" s="2"/>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B93" s="4"/>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B94" s="2"/>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B95" s="2"/>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B96" s="2"/>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B97" s="2"/>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B98" s="2"/>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B99" s="2"/>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B100" s="2"/>
     </row>
@@ -1514,7 +1519,7 @@
         <v>13</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1523,7 +1528,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B104" s="2"/>
     </row>
@@ -1535,22 +1540,22 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B106" s="2"/>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B107" s="2"/>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1565,7 +1570,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B111" s="2"/>
     </row>
@@ -1577,27 +1582,27 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B113" s="2"/>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B114" s="2"/>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B116" s="2"/>
     </row>
@@ -1607,7 +1612,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B118" s="2"/>
     </row>
@@ -1619,27 +1624,27 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B120" s="2"/>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B121" s="2"/>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B123" s="2"/>
     </row>
@@ -1649,7 +1654,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B125" s="2"/>
     </row>
@@ -1661,53 +1666,53 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B127" s="2"/>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B128" s="2"/>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B129" s="2"/>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B130" s="4"/>
       <c r="C130" s="1"/>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B131" s="4"/>
       <c r="C131" s="1"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B133" s="2"/>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B134" s="2"/>
     </row>
@@ -1719,13 +1724,13 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B136" s="2"/>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B137" s="2"/>
     </row>
@@ -1737,10 +1742,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="140" spans="1:3">

--- a/spec/ADV_Params.xlsx
+++ b/spec/ADV_Params.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="108">
   <si>
     <t>EdgeSense</t>
   </si>
@@ -174,9 +174,6 @@
     <t>12Gi</t>
   </si>
   <si>
-    <t>2.75Ti</t>
-  </si>
-  <si>
     <t>16Gi</t>
   </si>
   <si>
@@ -348,13 +345,25 @@
     <t>ADV_PV_DEF_64Gi</t>
   </si>
   <si>
-    <t>ADV_PV_DEF_1.375Ti</t>
-  </si>
-  <si>
     <t>ADV_MEM_DEF_512Gi</t>
   </si>
   <si>
     <t>1Gi</t>
+  </si>
+  <si>
+    <t>ADV_PV_DEF_1.125Ti</t>
+  </si>
+  <si>
+    <t>2.25Ti</t>
+  </si>
+  <si>
+    <t>20GI</t>
+  </si>
+  <si>
+    <t>512Gi</t>
+  </si>
+  <si>
+    <t>20Gi</t>
   </si>
 </sst>
 </file>
@@ -386,7 +395,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,6 +405,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -462,6 +477,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -864,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -879,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -967,7 +990,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -994,13 +1017,13 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="3"/>
     </row>
@@ -1065,7 +1088,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1092,7 +1115,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>50</v>
@@ -1111,7 +1134,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1142,12 +1165,12 @@
       </c>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>52</v>
+    <row r="42" spans="1:2" s="11" customFormat="1">
+      <c r="A42" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1163,7 +1186,7 @@
         <v>13</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1193,15 +1216,15 @@
         <v>29</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1209,7 +1232,7 @@
         <v>13</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1240,11 +1263,13 @@
       </c>
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:2" s="11" customFormat="1">
+      <c r="A57" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B57" s="3"/>
+      <c r="B57" s="10" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
@@ -1257,7 +1282,7 @@
         <v>13</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1305,7 +1330,7 @@
         <v>40</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1313,7 +1338,7 @@
         <v>13</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1334,18 +1359,18 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1405,7 +1430,7 @@
         <v>13</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1414,7 +1439,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B85" s="2"/>
     </row>
@@ -1426,85 +1451,87 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B87" s="2"/>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B88" s="2"/>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B89" s="2"/>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B90" s="2"/>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B91" s="2"/>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B92" s="2"/>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B93" s="4"/>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B94" s="2"/>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B95" s="2"/>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B96" s="2"/>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B97" s="2"/>
+    <row r="97" spans="1:2" s="11" customFormat="1">
+      <c r="A97" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B98" s="2"/>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B99" s="2"/>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B100" s="2"/>
     </row>
@@ -1519,7 +1546,7 @@
         <v>13</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1528,7 +1555,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B104" s="2"/>
     </row>
@@ -1540,22 +1567,22 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B106" s="2"/>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B107" s="2"/>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1570,7 +1597,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B111" s="2"/>
     </row>
@@ -1582,27 +1609,27 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B113" s="2"/>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B114" s="2"/>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B116" s="2"/>
     </row>
@@ -1612,7 +1639,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B118" s="2"/>
     </row>
@@ -1624,27 +1651,27 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B120" s="2"/>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B121" s="2"/>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B123" s="2"/>
     </row>
@@ -1654,7 +1681,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B125" s="2"/>
     </row>
@@ -1666,53 +1693,55 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B127" s="2"/>
+    </row>
+    <row r="128" spans="1:2" s="11" customFormat="1">
+      <c r="A128" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B127" s="2"/>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B128" s="2"/>
+      <c r="B128" s="10" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B129" s="2"/>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B130" s="4"/>
       <c r="C130" s="1"/>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B131" s="4"/>
       <c r="C131" s="1"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B133" s="2"/>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B134" s="2"/>
     </row>
@@ -1724,28 +1753,30 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B136" s="2"/>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B137" s="2"/>
     </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="4" t="s">
+    <row r="138" spans="1:3" s="11" customFormat="1">
+      <c r="A138" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B138" s="2"/>
+      <c r="B138" s="10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="140" spans="1:3">

--- a/spec/ADV_Params.xlsx
+++ b/spec/ADV_Params.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="107">
   <si>
     <t>EdgeSense</t>
   </si>
@@ -355,9 +355,6 @@
   </si>
   <si>
     <t>2.25Ti</t>
-  </si>
-  <si>
-    <t>20GI</t>
   </si>
   <si>
     <t>512Gi</t>
@@ -888,7 +885,7 @@
   <dimension ref="A1:C140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1268,7 +1265,7 @@
         <v>33</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1514,7 +1511,7 @@
         <v>68</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1702,7 +1699,7 @@
         <v>87</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="129" spans="1:3">

--- a/spec/ADV_Params.xlsx
+++ b/spec/ADV_Params.xlsx
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/spec/ADV_Params.xlsx
+++ b/spec/ADV_Params.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="110">
   <si>
     <t>EdgeSense</t>
   </si>
@@ -117,9 +117,6 @@
     <t>ADV_MC_IMAGE_DEF_RELEASE.2018-12-05T22-59-07Z</t>
   </si>
   <si>
-    <t>ADV_PV_DEF_10Gi</t>
-  </si>
-  <si>
     <t>ADV_MEM_DEF_256Mi</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>ADV_NGINX_IMAGE_DEF_0.19.0</t>
   </si>
   <si>
-    <t>ADV_NGINX_MEM_DEF_1Gi</t>
-  </si>
-  <si>
     <t>ADV_DEFAULT_IMAGE_DEF_1.4</t>
   </si>
   <si>
@@ -361,6 +355,21 @@
   </si>
   <si>
     <t>20Gi</t>
+  </si>
+  <si>
+    <t>ADV_PV_DEF_128Gi</t>
+  </si>
+  <si>
+    <t>256Gi</t>
+  </si>
+  <si>
+    <t>ADV_MEM_DEF_5Gi</t>
+  </si>
+  <si>
+    <t>10Gi</t>
+  </si>
+  <si>
+    <t>ADV_NGINX_MEM_DEF_512Mi</t>
   </si>
 </sst>
 </file>
@@ -392,7 +401,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,6 +417,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -474,14 +489,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -884,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -899,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -965,7 +985,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -973,7 +993,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -987,7 +1007,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1014,13 +1034,13 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B20" s="3"/>
     </row>
@@ -1063,7 +1083,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1071,7 +1091,7 @@
         <v>11</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1085,7 +1105,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1112,18 +1132,18 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="10" customFormat="1">
+      <c r="A35" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1131,7 +1151,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1156,26 +1176,26 @@
       </c>
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" ht="16.5" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:2" s="11" customFormat="1">
+    <row r="42" spans="1:2" s="14" customFormat="1">
       <c r="A42" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" s="14" customFormat="1">
+      <c r="A43" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>51</v>
+      <c r="B43" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1183,7 +1203,7 @@
         <v>13</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1213,15 +1233,15 @@
         <v>29</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1229,7 +1249,7 @@
         <v>13</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1260,17 +1280,17 @@
       </c>
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="1:2" s="11" customFormat="1">
-      <c r="A57" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B57" s="10" t="s">
+    <row r="57" spans="1:2" s="10" customFormat="1">
+      <c r="A57" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B58" s="3"/>
     </row>
@@ -1279,7 +1299,7 @@
         <v>13</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1288,7 +1308,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B61" s="3"/>
     </row>
@@ -1300,34 +1320,36 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B64" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" s="10" customFormat="1">
+      <c r="A64" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="9"/>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B65" s="3"/>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B66" s="3"/>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1335,7 +1357,7 @@
         <v>13</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1344,7 +1366,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B70" s="3"/>
     </row>
@@ -1356,18 +1378,18 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1376,7 +1398,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B75" s="3"/>
     </row>
@@ -1388,31 +1410,31 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B77" s="3"/>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B78" s="3"/>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B79" s="3"/>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B80" s="3"/>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B81" s="3"/>
     </row>
@@ -1427,7 +1449,7 @@
         <v>13</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1436,7 +1458,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B85" s="2"/>
     </row>
@@ -1448,87 +1470,87 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B87" s="2"/>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B88" s="2"/>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B89" s="2"/>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B90" s="2"/>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B91" s="2"/>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B92" s="2"/>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B93" s="4"/>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B94" s="2"/>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B95" s="2"/>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="1:2" s="14" customFormat="1">
+      <c r="A97" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B96" s="2"/>
-    </row>
-    <row r="97" spans="1:2" s="11" customFormat="1">
-      <c r="A97" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B97" s="10" t="s">
-        <v>105</v>
+      <c r="B97" s="13" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B98" s="2"/>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B99" s="2"/>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B100" s="2"/>
     </row>
@@ -1543,7 +1565,7 @@
         <v>13</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1552,7 +1574,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B104" s="2"/>
     </row>
@@ -1564,22 +1586,22 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B106" s="2"/>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B107" s="2"/>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1594,7 +1616,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B111" s="2"/>
     </row>
@@ -1606,27 +1628,27 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B113" s="2"/>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B114" s="2"/>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B116" s="2"/>
     </row>
@@ -1636,7 +1658,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B118" s="2"/>
     </row>
@@ -1648,27 +1670,27 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B120" s="2"/>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B121" s="2"/>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B123" s="2"/>
     </row>
@@ -1678,7 +1700,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B125" s="2"/>
     </row>
@@ -1690,55 +1712,55 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B127" s="2"/>
     </row>
-    <row r="128" spans="1:2" s="11" customFormat="1">
-      <c r="A128" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>106</v>
+    <row r="128" spans="1:2" s="14" customFormat="1">
+      <c r="A128" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B129" s="2"/>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B130" s="4"/>
       <c r="C130" s="1"/>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B131" s="4"/>
       <c r="C131" s="1"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B133" s="2"/>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B134" s="2"/>
     </row>
@@ -1750,30 +1772,30 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B136" s="2"/>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B137" s="2"/>
     </row>
-    <row r="138" spans="1:3" s="11" customFormat="1">
-      <c r="A138" s="9" t="s">
+    <row r="138" spans="1:3" s="14" customFormat="1">
+      <c r="A138" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B138" s="10" t="s">
-        <v>52</v>
+      <c r="B138" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="140" spans="1:3">

--- a/spec/ADV_Params.xlsx
+++ b/spec/ADV_Params.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="108">
   <si>
     <t>EdgeSense</t>
   </si>
@@ -361,12 +361,6 @@
   </si>
   <si>
     <t>256Gi</t>
-  </si>
-  <si>
-    <t>ADV_MEM_DEF_5Gi</t>
-  </si>
-  <si>
-    <t>10Gi</t>
   </si>
   <si>
     <t>ADV_NGINX_MEM_DEF_512Mi</t>
@@ -904,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1138,12 +1132,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="10" customFormat="1">
-      <c r="A35" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>108</v>
+    <row r="35" spans="1:2" s="14" customFormat="1">
+      <c r="A35" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1322,15 +1316,13 @@
       <c r="A63" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" s="10" customFormat="1">
-      <c r="A64" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B64" s="9"/>
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="1:2" s="14" customFormat="1">
+      <c r="A64" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" s="3"/>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">

--- a/spec/ADV_Params.xlsx
+++ b/spec/ADV_Params.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12345"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="19890" windowHeight="7410"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -370,7 +370,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -394,8 +394,15 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,12 +412,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,19 +484,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -898,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1132,11 +1133,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="14" customFormat="1">
-      <c r="A35" s="12" t="s">
+    <row r="35" spans="1:2" s="11" customFormat="1">
+      <c r="A35" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1176,19 +1177,19 @@
       </c>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:2" s="14" customFormat="1">
-      <c r="A42" s="12" t="s">
+    <row r="42" spans="1:2" s="11" customFormat="1">
+      <c r="A42" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="14" customFormat="1">
-      <c r="A43" s="12" t="s">
+    <row r="43" spans="1:2" s="11" customFormat="1">
+      <c r="A43" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1274,11 +1275,11 @@
       </c>
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="1:2" s="10" customFormat="1">
-      <c r="A57" s="11" t="s">
+    <row r="57" spans="1:2" s="15" customFormat="1">
+      <c r="A57" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="14" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1318,8 +1319,8 @@
       </c>
       <c r="B63" s="3"/>
     </row>
-    <row r="64" spans="1:2" s="14" customFormat="1">
-      <c r="A64" s="12" t="s">
+    <row r="64" spans="1:2" s="11" customFormat="1">
+      <c r="A64" s="9" t="s">
         <v>107</v>
       </c>
       <c r="B64" s="3"/>
@@ -1520,11 +1521,11 @@
       </c>
       <c r="B96" s="2"/>
     </row>
-    <row r="97" spans="1:2" s="14" customFormat="1">
-      <c r="A97" s="15" t="s">
+    <row r="97" spans="1:2" s="11" customFormat="1">
+      <c r="A97" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B97" s="13" t="s">
+      <c r="B97" s="10" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1708,11 +1709,11 @@
       </c>
       <c r="B127" s="2"/>
     </row>
-    <row r="128" spans="1:2" s="14" customFormat="1">
-      <c r="A128" s="15" t="s">
+    <row r="128" spans="1:2" s="11" customFormat="1">
+      <c r="A128" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B128" s="13" t="s">
+      <c r="B128" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1774,11 +1775,11 @@
       </c>
       <c r="B137" s="2"/>
     </row>
-    <row r="138" spans="1:3" s="14" customFormat="1">
-      <c r="A138" s="15" t="s">
+    <row r="138" spans="1:3" s="11" customFormat="1">
+      <c r="A138" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B138" s="13" t="s">
+      <c r="B138" s="10" t="s">
         <v>50</v>
       </c>
     </row>
